--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2632220.223570934</v>
+        <v>2629968.143859727</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.0648965483565</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.7363964403881</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851005</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.157463481058407</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>114.3606976213222</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>22.05778319390732</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>16.61609021060037</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.0138334144182</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>148.4348925031072</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>208.3583804947447</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>88.89700561060583</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386283</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892427132</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120537</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.4649598217092</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,10 +1847,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428256</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576187</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.017717176686</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573447</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>95.21019414968804</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409626</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079031337</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654138</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428163</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>610.2639694321823</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>610.2639694321823</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>460.1473300198465</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>312.2342364374534</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>312.2342364374534</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757124</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757124</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757124</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757124</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>831.0565485757124</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>610.2639694321823</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1215.758282883553</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>846.7957659431409</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>488.5300673363904</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678284</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3303.325232524415</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3049.794755798251</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2718.73186845468</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.963213184566</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.497454923486</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.358122947674</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,22 +4662,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218339</v>
+        <v>216.4463512838068</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="W7" t="n">
-        <v>631.469835781224</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="X7" t="n">
-        <v>403.4802848832067</v>
+        <v>216.4463512838068</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.6877057396765</v>
+        <v>216.4463512838068</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1032.06112435253</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1032.06112435253</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>673.7954257457793</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>288.0071731475351</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678284</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923657</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653543</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392463</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416651</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0920506559569</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0920506559569</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181842</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181842</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181842</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181842</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5033,22 +5033,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5057,10 +5057,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400608</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121539</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121539</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121539</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121539</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270338</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038233</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797636</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910798</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570807</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279792</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885335</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832652</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487557</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648809</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611848</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138306</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703005</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5258,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311994</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7557007032925</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,46 +5516,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703778</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,43 +5759,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797193</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797193</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438167</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,40 +5999,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468472</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>962.6357307816173</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>793.6995478537104</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1144.284195611857</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7190,34 +7190,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349512</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019582707</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922698</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392195254</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>2.150513196503169</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219413</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194183</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218918</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459261</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>53.40527886852432</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286541</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575596</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253405</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304638987</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194225</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780817.9809007889</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520045</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.641531071072677e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186721</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186724</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
+        <v>14826.69604186734</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14826.69604186734</v>
+      </c>
+      <c r="O4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14826.69604186742</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14826.6960418673</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016114</v>
+        <v>-873442.0145016117</v>
       </c>
       <c r="C6" t="n">
-        <v>455302.7312259809</v>
+        <v>455302.7312259807</v>
       </c>
       <c r="D6" t="n">
-        <v>455302.7312259811</v>
+        <v>455302.7312259808</v>
       </c>
       <c r="E6" t="n">
-        <v>204355.592078875</v>
+        <v>204320.8541534392</v>
       </c>
       <c r="F6" t="n">
-        <v>529768.0538862308</v>
+        <v>529733.3159607949</v>
       </c>
       <c r="G6" t="n">
-        <v>529768.0538862301</v>
+        <v>529733.3159607947</v>
       </c>
       <c r="H6" t="n">
-        <v>529768.0538862306</v>
+        <v>529733.3159607949</v>
       </c>
       <c r="I6" t="n">
-        <v>529768.0538862307</v>
+        <v>529733.315960795</v>
       </c>
       <c r="J6" t="n">
-        <v>312236.8514889534</v>
+        <v>312202.1135635174</v>
       </c>
       <c r="K6" t="n">
-        <v>529768.0538862306</v>
+        <v>529733.315960795</v>
       </c>
       <c r="L6" t="n">
-        <v>529768.0538862307</v>
+        <v>529733.3159607953</v>
       </c>
       <c r="M6" t="n">
-        <v>444713.0259507186</v>
+        <v>444678.2880252833</v>
       </c>
       <c r="N6" t="n">
-        <v>529768.0538862306</v>
+        <v>529733.3159607952</v>
       </c>
       <c r="O6" t="n">
-        <v>529768.0538862305</v>
+        <v>529733.3159607952</v>
       </c>
       <c r="P6" t="n">
-        <v>529768.0538862307</v>
+        <v>529733.3159607948</v>
       </c>
     </row>
   </sheetData>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.66894511512407</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>240.9947042380809</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8683447779698</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>137.7769457025058</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>181.8601869457129</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>332.6248785068126</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.81814676751908</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>18.81192859552067</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>198.5176652469667</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>100.8720197208361</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.302797828232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.007310617005792e-11</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035317</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32810,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33044,10 +33044,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159423</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175697</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>626.4629682828346</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060958</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096237</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.7309431539454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36692,10 +36692,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,13 +36926,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790297</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>483.8667238383902</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
